--- a/app/static/upload/excel_hide/excel_TM/processed.xlsx
+++ b/app/static/upload/excel_hide/excel_TM/processed.xlsx
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>

--- a/app/static/upload/excel_hide/excel_TM/processed.xlsx
+++ b/app/static/upload/excel_hide/excel_TM/processed.xlsx
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
